--- a/Parcial1/TasaCETES.xlsx
+++ b/Parcial1/TasaCETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolandofortanell/Documents/ITESO/Analisis de Riesgo/Analisis_de_Riesgo/Parcial1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0F6097-7503-0A48-9309-2FB0ABD973E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1DF7B-EF18-3740-A88A-68F57A401584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28300" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -465,423 +465,423 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43832</v>
+        <v>43867</v>
       </c>
       <c r="B2" s="4">
-        <v>7.25</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43839</v>
+        <v>43874</v>
       </c>
       <c r="B3" s="4">
-        <v>7.26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>43846</v>
+        <v>43881</v>
       </c>
       <c r="B4" s="4">
-        <v>7</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>43853</v>
+        <v>43888</v>
       </c>
       <c r="B5" s="4">
-        <v>7.05</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>43860</v>
+        <v>43895</v>
       </c>
       <c r="B6" s="4">
-        <v>7.04</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>43867</v>
+        <v>43902</v>
       </c>
       <c r="B7" s="4">
-        <v>6.99</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43874</v>
+        <v>43909</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43881</v>
+        <v>43916</v>
       </c>
       <c r="B9" s="4">
-        <v>6.95</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>43888</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>6.91</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>43895</v>
+        <v>43929</v>
       </c>
       <c r="B11" s="4">
-        <v>6.7</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>43902</v>
+        <v>43937</v>
       </c>
       <c r="B12" s="4">
-        <v>6.81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>43909</v>
+        <v>43944</v>
       </c>
       <c r="B13" s="4">
-        <v>7.15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>43916</v>
+        <v>43951</v>
       </c>
       <c r="B14" s="4">
-        <v>6.59</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>43923</v>
+        <v>43958</v>
       </c>
       <c r="B15" s="4">
-        <v>6.39</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>43929</v>
+        <v>43965</v>
       </c>
       <c r="B16" s="4">
-        <v>6.23</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>43937</v>
+        <v>43972</v>
       </c>
       <c r="B17" s="4">
-        <v>6</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>43944</v>
+        <v>43979</v>
       </c>
       <c r="B18" s="4">
-        <v>6</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>43951</v>
+        <v>43986</v>
       </c>
       <c r="B19" s="4">
-        <v>5.84</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>43958</v>
+        <v>43993</v>
       </c>
       <c r="B20" s="4">
-        <v>5.7</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>43965</v>
+        <v>44000</v>
       </c>
       <c r="B21" s="4">
-        <v>5.39</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>43972</v>
+        <v>44007</v>
       </c>
       <c r="B22" s="4">
-        <v>5.39</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>43979</v>
+        <v>44014</v>
       </c>
       <c r="B23" s="4">
-        <v>5.38</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>43986</v>
+        <v>44021</v>
       </c>
       <c r="B24" s="4">
-        <v>5.27</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>43993</v>
+        <v>44028</v>
       </c>
       <c r="B25" s="4">
-        <v>5.15</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>44000</v>
+        <v>44035</v>
       </c>
       <c r="B26" s="4">
-        <v>4.9800000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>44007</v>
+        <v>44042</v>
       </c>
       <c r="B27" s="4">
-        <v>4.8499999999999996</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>44014</v>
+        <v>44049</v>
       </c>
       <c r="B28" s="4">
-        <v>4.8099999999999996</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>44021</v>
+        <v>44056</v>
       </c>
       <c r="B29" s="4">
-        <v>4.95</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>44028</v>
+        <v>44063</v>
       </c>
       <c r="B30" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>44035</v>
+        <v>44070</v>
       </c>
       <c r="B31" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>44042</v>
+        <v>44077</v>
       </c>
       <c r="B32" s="4">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>44049</v>
+        <v>44084</v>
       </c>
       <c r="B33" s="4">
-        <v>4.53</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>44056</v>
+        <v>44091</v>
       </c>
       <c r="B34" s="4">
-        <v>4.4800000000000004</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>44063</v>
+        <v>44098</v>
       </c>
       <c r="B35" s="4">
-        <v>4.43</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>44070</v>
+        <v>44105</v>
       </c>
       <c r="B36" s="4">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>44077</v>
+        <v>44112</v>
       </c>
       <c r="B37" s="4">
-        <v>4.42</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>44084</v>
+        <v>44119</v>
       </c>
       <c r="B38" s="4">
-        <v>4.41</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>44091</v>
+        <v>44126</v>
       </c>
       <c r="B39" s="4">
-        <v>4.45</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>44098</v>
+        <v>44133</v>
       </c>
       <c r="B40" s="4">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>44105</v>
+        <v>44140</v>
       </c>
       <c r="B41" s="4">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>44112</v>
+        <v>44147</v>
       </c>
       <c r="B42" s="4">
-        <v>4.26</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>44119</v>
+        <v>44154</v>
       </c>
       <c r="B43" s="4">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>44126</v>
+        <v>44161</v>
       </c>
       <c r="B44" s="4">
-        <v>4.1399999999999997</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>44133</v>
+        <v>44168</v>
       </c>
       <c r="B45" s="4">
-        <v>4.22</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>44140</v>
+        <v>44175</v>
       </c>
       <c r="B46" s="4">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>44147</v>
+        <v>44182</v>
       </c>
       <c r="B47" s="4">
-        <v>4.1399999999999997</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>44154</v>
+        <v>44189</v>
       </c>
       <c r="B48" s="4">
-        <v>4.24</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>44161</v>
+        <v>44196</v>
       </c>
       <c r="B49" s="4">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>44168</v>
+        <v>44203</v>
       </c>
       <c r="B50" s="4">
-        <v>4.3499999999999996</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="B51" s="4">
-        <v>4.26</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>44182</v>
+        <v>44217</v>
       </c>
       <c r="B52" s="4">
-        <v>4.2300000000000004</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>44189</v>
+        <v>44224</v>
       </c>
       <c r="B53" s="4">
-        <v>4.2699999999999996</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>44196</v>
+        <v>44231</v>
       </c>
       <c r="B54" s="4">
         <v>4.24</v>
@@ -889,919 +889,919 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>44203</v>
+        <v>44238</v>
       </c>
       <c r="B55" s="4">
-        <v>4.28</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>44210</v>
+        <v>44245</v>
       </c>
       <c r="B56" s="4">
-        <v>4.1900000000000004</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>44217</v>
+        <v>44252</v>
       </c>
       <c r="B57" s="4">
-        <v>4.1900000000000004</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>44224</v>
+        <v>44259</v>
       </c>
       <c r="B58" s="4">
-        <v>4.22</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>44231</v>
+        <v>44266</v>
       </c>
       <c r="B59" s="4">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>44238</v>
+        <v>44273</v>
       </c>
       <c r="B60" s="4">
-        <v>4.1900000000000004</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>44245</v>
+        <v>44280</v>
       </c>
       <c r="B61" s="4">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>44252</v>
+        <v>44286</v>
       </c>
       <c r="B62" s="4">
-        <v>4.0199999999999996</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>44259</v>
+        <v>44294</v>
       </c>
       <c r="B63" s="4">
-        <v>4.0599999999999996</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>44266</v>
+        <v>44301</v>
       </c>
       <c r="B64" s="4">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>44273</v>
+        <v>44308</v>
       </c>
       <c r="B65" s="4">
-        <v>4.05</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>44280</v>
+        <v>44315</v>
       </c>
       <c r="B66" s="4">
-        <v>4.03</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>44286</v>
+        <v>44322</v>
       </c>
       <c r="B67" s="4">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>44294</v>
+        <v>44329</v>
       </c>
       <c r="B68" s="4">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>44301</v>
+        <v>44336</v>
       </c>
       <c r="B69" s="4">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>44308</v>
+        <v>44343</v>
       </c>
       <c r="B70" s="4">
-        <v>4.0599999999999996</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="B71" s="4">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>44322</v>
+        <v>44357</v>
       </c>
       <c r="B72" s="4">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>44329</v>
+        <v>44364</v>
       </c>
       <c r="B73" s="4">
-        <v>4.0599999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>44336</v>
+        <v>44371</v>
       </c>
       <c r="B74" s="4">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>44343</v>
+        <v>44378</v>
       </c>
       <c r="B75" s="4">
-        <v>4.07</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>44350</v>
+        <v>44385</v>
       </c>
       <c r="B76" s="4">
-        <v>4.0199999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="B77" s="4">
-        <v>4.04</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="B78" s="4">
-        <v>4</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>44371</v>
+        <v>44406</v>
       </c>
       <c r="B79" s="4">
-        <v>4.03</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>44378</v>
+        <v>44413</v>
       </c>
       <c r="B80" s="4">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>44385</v>
+        <v>44420</v>
       </c>
       <c r="B81" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>44392</v>
+        <v>44427</v>
       </c>
       <c r="B82" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="B83" s="4">
-        <v>4.33</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>44406</v>
+        <v>44441</v>
       </c>
       <c r="B84" s="4">
-        <v>4.3499999999999996</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>44413</v>
+        <v>44448</v>
       </c>
       <c r="B85" s="4">
-        <v>4.33</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>44420</v>
+        <v>44454</v>
       </c>
       <c r="B86" s="4">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>44427</v>
+        <v>44462</v>
       </c>
       <c r="B87" s="4">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="B88" s="4">
-        <v>4.49</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>44441</v>
+        <v>44476</v>
       </c>
       <c r="B89" s="4">
-        <v>4.3899999999999997</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>44448</v>
+        <v>44483</v>
       </c>
       <c r="B90" s="4">
-        <v>4.49</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>44454</v>
+        <v>44490</v>
       </c>
       <c r="B91" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>44462</v>
+        <v>44497</v>
       </c>
       <c r="B92" s="4">
-        <v>4.58</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>44469</v>
+        <v>44504</v>
       </c>
       <c r="B93" s="4">
-        <v>4.6900000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>44476</v>
+        <v>44511</v>
       </c>
       <c r="B94" s="4">
-        <v>4.8099999999999996</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>44483</v>
+        <v>44518</v>
       </c>
       <c r="B95" s="4">
-        <v>4.79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>44490</v>
+        <v>44525</v>
       </c>
       <c r="B96" s="4">
-        <v>4.83</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>44497</v>
+        <v>44532</v>
       </c>
       <c r="B97" s="4">
-        <v>4.93</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>44504</v>
+        <v>44539</v>
       </c>
       <c r="B98" s="4">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>44511</v>
+        <v>44546</v>
       </c>
       <c r="B99" s="4">
-        <v>5.14</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>44518</v>
+        <v>44553</v>
       </c>
       <c r="B100" s="4">
-        <v>5</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>44525</v>
+        <v>44560</v>
       </c>
       <c r="B101" s="4">
-        <v>5.05</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>44532</v>
+        <v>44567</v>
       </c>
       <c r="B102" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>44539</v>
+        <v>44574</v>
       </c>
       <c r="B103" s="4">
-        <v>5.2</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>44546</v>
+        <v>44581</v>
       </c>
       <c r="B104" s="4">
-        <v>5.2</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>44553</v>
+        <v>44588</v>
       </c>
       <c r="B105" s="4">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>44560</v>
+        <v>44595</v>
       </c>
       <c r="B106" s="4">
-        <v>5.49</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>44567</v>
+        <v>44602</v>
       </c>
       <c r="B107" s="4">
-        <v>5.51</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="B108" s="4">
-        <v>5.52</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>44581</v>
+        <v>44616</v>
       </c>
       <c r="B109" s="4">
-        <v>5.57</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>44588</v>
+        <v>44623</v>
       </c>
       <c r="B110" s="4">
-        <v>5.5</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>44595</v>
+        <v>44630</v>
       </c>
       <c r="B111" s="4">
-        <v>5.84</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>44602</v>
+        <v>44637</v>
       </c>
       <c r="B112" s="4">
-        <v>5.75</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>44609</v>
+        <v>44644</v>
       </c>
       <c r="B113" s="4">
-        <v>5.95</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="B114" s="4">
-        <v>5.94</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>44623</v>
+        <v>44658</v>
       </c>
       <c r="B115" s="4">
-        <v>6.06</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>44630</v>
+        <v>44664</v>
       </c>
       <c r="B116" s="4">
-        <v>6.15</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>44637</v>
+        <v>44672</v>
       </c>
       <c r="B117" s="4">
-        <v>6.33</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>44644</v>
+        <v>44679</v>
       </c>
       <c r="B118" s="4">
-        <v>6.49</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>44651</v>
+        <v>44686</v>
       </c>
       <c r="B119" s="4">
-        <v>6.52</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>44658</v>
+        <v>44693</v>
       </c>
       <c r="B120" s="4">
-        <v>6.52</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>44664</v>
+        <v>44700</v>
       </c>
       <c r="B121" s="4">
-        <v>6.52</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>44672</v>
+        <v>44707</v>
       </c>
       <c r="B122" s="4">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>44679</v>
+        <v>44714</v>
       </c>
       <c r="B123" s="4">
-        <v>6.68</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>44686</v>
+        <v>44721</v>
       </c>
       <c r="B124" s="4">
-        <v>6.85</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>44693</v>
+        <v>44728</v>
       </c>
       <c r="B125" s="4">
-        <v>6.97</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>44700</v>
+        <v>44735</v>
       </c>
       <c r="B126" s="4">
-        <v>6.93</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>44707</v>
+        <v>44742</v>
       </c>
       <c r="B127" s="4">
-        <v>6.9</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>44714</v>
+        <v>44749</v>
       </c>
       <c r="B128" s="4">
-        <v>7.01</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>44721</v>
+        <v>44756</v>
       </c>
       <c r="B129" s="4">
-        <v>7.32</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>44728</v>
+        <v>44763</v>
       </c>
       <c r="B130" s="4">
-        <v>7.15</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>44735</v>
+        <v>44770</v>
       </c>
       <c r="B131" s="4">
-        <v>7.5</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>44742</v>
+        <v>44777</v>
       </c>
       <c r="B132" s="4">
-        <v>7.56</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>44749</v>
+        <v>44784</v>
       </c>
       <c r="B133" s="4">
-        <v>7.7</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>44756</v>
+        <v>44791</v>
       </c>
       <c r="B134" s="4">
-        <v>7.55</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>44763</v>
+        <v>44798</v>
       </c>
       <c r="B135" s="4">
-        <v>7.74</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>44770</v>
+        <v>44805</v>
       </c>
       <c r="B136" s="4">
-        <v>8.0500000000000007</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>44777</v>
+        <v>44812</v>
       </c>
       <c r="B137" s="4">
-        <v>8.01</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>44784</v>
+        <v>44819</v>
       </c>
       <c r="B138" s="4">
-        <v>8.3000000000000007</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>44791</v>
+        <v>44826</v>
       </c>
       <c r="B139" s="4">
-        <v>8.35</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>44798</v>
+        <v>44833</v>
       </c>
       <c r="B140" s="4">
-        <v>8.35</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>44805</v>
+        <v>44840</v>
       </c>
       <c r="B141" s="4">
-        <v>8.35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>44812</v>
+        <v>44847</v>
       </c>
       <c r="B142" s="4">
-        <v>8.5500000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>44819</v>
+        <v>44854</v>
       </c>
       <c r="B143" s="4">
-        <v>8.75</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>44826</v>
+        <v>44861</v>
       </c>
       <c r="B144" s="4">
-        <v>8.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>44833</v>
+        <v>44868</v>
       </c>
       <c r="B145" s="4">
-        <v>9.25</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="B146" s="4">
-        <v>9</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>44847</v>
+        <v>44882</v>
       </c>
       <c r="B147" s="4">
-        <v>8.9</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>44854</v>
+        <v>44889</v>
       </c>
       <c r="B148" s="4">
-        <v>8.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>44861</v>
+        <v>44896</v>
       </c>
       <c r="B149" s="4">
-        <v>9</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>44868</v>
+        <v>44903</v>
       </c>
       <c r="B150" s="4">
-        <v>9.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>44875</v>
+        <v>44910</v>
       </c>
       <c r="B151" s="4">
-        <v>9.19</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>44882</v>
+        <v>44917</v>
       </c>
       <c r="B152" s="4">
-        <v>9.3699999999999992</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>44889</v>
+        <v>44924</v>
       </c>
       <c r="B153" s="4">
-        <v>9.6999999999999993</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>44896</v>
+        <v>44931</v>
       </c>
       <c r="B154" s="4">
-        <v>9.68</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>44903</v>
+        <v>44938</v>
       </c>
       <c r="B155" s="4">
-        <v>10</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>44910</v>
+        <v>44945</v>
       </c>
       <c r="B156" s="4">
-        <v>9.8000000000000007</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>44917</v>
+        <v>44952</v>
       </c>
       <c r="B157" s="4">
-        <v>10.199999999999999</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>44924</v>
+        <v>44959</v>
       </c>
       <c r="B158" s="4">
-        <v>10.1</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>44931</v>
+        <v>44966</v>
       </c>
       <c r="B159" s="4">
-        <v>10.49</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>44938</v>
+        <v>44973</v>
       </c>
       <c r="B160" s="4">
-        <v>10.46</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>44945</v>
+        <v>44980</v>
       </c>
       <c r="B161" s="4">
-        <v>10.7</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>44952</v>
+        <v>44987</v>
       </c>
       <c r="B162" s="4">
-        <v>10.8</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>44959</v>
+        <v>44994</v>
       </c>
       <c r="B163" s="4">
-        <v>10.78</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>44966</v>
+        <v>45001</v>
       </c>
       <c r="B164" s="4">
-        <v>10.82</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>44973</v>
+        <v>45008</v>
       </c>
       <c r="B165" s="4">
-        <v>11.05</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>44980</v>
+        <v>45015</v>
       </c>
       <c r="B166" s="4">
-        <v>11.04</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>44987</v>
+        <v>45021</v>
       </c>
       <c r="B167" s="4">
-        <v>11.05</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>44994</v>
+        <v>45029</v>
       </c>
       <c r="B168" s="4">
-        <v>11.19</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>45001</v>
+        <v>45036</v>
       </c>
       <c r="B169" s="4">
         <v>11.3</v>
@@ -1809,111 +1809,111 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>45008</v>
+        <v>45043</v>
       </c>
       <c r="B170" s="4">
-        <v>11.28</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>45015</v>
+        <v>45050</v>
       </c>
       <c r="B171" s="4">
-        <v>11.34</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>45021</v>
+        <v>45057</v>
       </c>
       <c r="B172" s="4">
-        <v>11.28</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>45029</v>
+        <v>45064</v>
       </c>
       <c r="B173" s="4">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>45036</v>
+        <v>45071</v>
       </c>
       <c r="B174" s="4">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>45043</v>
+        <v>45078</v>
       </c>
       <c r="B175" s="4">
-        <v>11.27</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>45050</v>
+        <v>45085</v>
       </c>
       <c r="B176" s="4">
-        <v>11.4</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>45057</v>
+        <v>45092</v>
       </c>
       <c r="B177" s="4">
-        <v>11.39</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>45064</v>
+        <v>45099</v>
       </c>
       <c r="B178" s="4">
-        <v>11.25</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>45071</v>
+        <v>45106</v>
       </c>
       <c r="B179" s="4">
-        <v>11.25</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>45078</v>
+        <v>45113</v>
       </c>
       <c r="B180" s="4">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>45085</v>
+        <v>45120</v>
       </c>
       <c r="B181" s="4">
-        <v>11.32</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>45092</v>
+        <v>45127</v>
       </c>
       <c r="B182" s="4">
-        <v>11.15</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>45099</v>
+        <v>45134</v>
       </c>
       <c r="B183" s="4">
         <v>11.09</v>
@@ -1921,55 +1921,55 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>45106</v>
+        <v>45141</v>
       </c>
       <c r="B184" s="4">
-        <v>11.02</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>45113</v>
+        <v>45148</v>
       </c>
       <c r="B185" s="4">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>45120</v>
+        <v>45155</v>
       </c>
       <c r="B186" s="4">
-        <v>11.29</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>45127</v>
+        <v>45162</v>
       </c>
       <c r="B187" s="4">
-        <v>11.18</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>45134</v>
+        <v>45169</v>
       </c>
       <c r="B188" s="4">
-        <v>11.09</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>45141</v>
+        <v>45176</v>
       </c>
       <c r="B189" s="4">
-        <v>11.28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>45148</v>
+        <v>45183</v>
       </c>
       <c r="B190" s="4">
         <v>11.25</v>
@@ -1977,319 +1977,319 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>45155</v>
+        <v>45190</v>
       </c>
       <c r="B191" s="4">
-        <v>11.26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>45162</v>
+        <v>45197</v>
       </c>
       <c r="B192" s="4">
-        <v>10.96</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>45169</v>
+        <v>45204</v>
       </c>
       <c r="B193" s="4">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>45176</v>
+        <v>45211</v>
       </c>
       <c r="B194" s="4">
-        <v>11</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>45183</v>
+        <v>45218</v>
       </c>
       <c r="B195" s="4">
-        <v>11.25</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>45190</v>
+        <v>45225</v>
       </c>
       <c r="B196" s="4">
-        <v>11</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>45197</v>
+        <v>45231</v>
       </c>
       <c r="B197" s="4">
-        <v>11.05</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>45204</v>
+        <v>45239</v>
       </c>
       <c r="B198" s="4">
-        <v>11.05</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>45211</v>
+        <v>45246</v>
       </c>
       <c r="B199" s="4">
-        <v>11.05</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>45218</v>
+        <v>45253</v>
       </c>
       <c r="B200" s="4">
-        <v>10.95</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>45225</v>
+        <v>45260</v>
       </c>
       <c r="B201" s="4">
-        <v>11.26</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>45231</v>
+        <v>45267</v>
       </c>
       <c r="B202" s="4">
-        <v>11.09</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>45239</v>
+        <v>45274</v>
       </c>
       <c r="B203" s="4">
-        <v>10.95</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>45246</v>
+        <v>45281</v>
       </c>
       <c r="B204" s="4">
-        <v>10.87</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>45253</v>
+        <v>45288</v>
       </c>
       <c r="B205" s="4">
-        <v>10.75</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>45260</v>
+        <v>45295</v>
       </c>
       <c r="B206" s="4">
-        <v>10.78</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>45267</v>
+        <v>45302</v>
       </c>
       <c r="B207" s="4">
-        <v>11.25</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>45274</v>
+        <v>45309</v>
       </c>
       <c r="B208" s="4">
-        <v>11.25</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>45281</v>
+        <v>45316</v>
       </c>
       <c r="B209" s="4">
-        <v>11.09</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>45288</v>
+        <v>45323</v>
       </c>
       <c r="B210" s="4">
-        <v>11.26</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>45295</v>
+        <v>45330</v>
       </c>
       <c r="B211" s="4">
-        <v>11.3</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>45302</v>
+        <v>45337</v>
       </c>
       <c r="B212" s="4">
-        <v>11.28</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>45309</v>
+        <v>45344</v>
       </c>
       <c r="B213" s="4">
-        <v>11.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>45316</v>
+        <v>45351</v>
       </c>
       <c r="B214" s="4">
-        <v>11.28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>45323</v>
+        <v>45358</v>
       </c>
       <c r="B215" s="4">
-        <v>11.15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>45330</v>
+        <v>45365</v>
       </c>
       <c r="B216" s="4">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>45337</v>
+        <v>45372</v>
       </c>
       <c r="B217" s="4">
-        <v>11.05</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>45344</v>
+        <v>45378</v>
       </c>
       <c r="B218" s="4">
-        <v>11</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>45351</v>
+        <v>45386</v>
       </c>
       <c r="B219" s="4">
-        <v>11</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>45358</v>
+        <v>45393</v>
       </c>
       <c r="B220" s="4">
-        <v>11</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>45365</v>
+        <v>45400</v>
       </c>
       <c r="B221" s="4">
-        <v>11.18</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>45372</v>
+        <v>45407</v>
       </c>
       <c r="B222" s="4">
-        <v>10.99</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>45378</v>
+        <v>45414</v>
       </c>
       <c r="B223" s="4">
-        <v>10.9</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>45386</v>
+        <v>45421</v>
       </c>
       <c r="B224" s="4">
-        <v>10.88</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>45393</v>
+        <v>45428</v>
       </c>
       <c r="B225" s="4">
-        <v>10.92</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>45400</v>
+        <v>45435</v>
       </c>
       <c r="B226" s="4">
-        <v>11.04</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>45407</v>
+        <v>45442</v>
       </c>
       <c r="B227" s="4">
-        <v>11.04</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>45414</v>
+        <v>45449</v>
       </c>
       <c r="B228" s="4">
-        <v>10.95</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>45421</v>
+        <v>45456</v>
       </c>
       <c r="B229" s="4">
-        <v>11.03</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>45428</v>
+        <v>45463</v>
       </c>
       <c r="B230" s="4">
         <v>10.95</v>
@@ -2297,322 +2297,258 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>45435</v>
+        <v>45470</v>
       </c>
       <c r="B231" s="4">
-        <v>11</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>45442</v>
+        <v>45477</v>
       </c>
       <c r="B232" s="4">
-        <v>11.03</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>45449</v>
+        <v>45484</v>
       </c>
       <c r="B233" s="4">
-        <v>11.04</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>45456</v>
+        <v>45491</v>
       </c>
       <c r="B234" s="4">
-        <v>11</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>45463</v>
+        <v>45498</v>
       </c>
       <c r="B235" s="4">
-        <v>10.95</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>45470</v>
+        <v>45505</v>
       </c>
       <c r="B236" s="4">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="B237" s="4">
-        <v>11.02</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>45484</v>
+        <v>45519</v>
       </c>
       <c r="B238" s="4">
-        <v>10.9</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>45491</v>
+        <v>45526</v>
       </c>
       <c r="B239" s="4">
-        <v>10.89</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>45498</v>
+        <v>45533</v>
       </c>
       <c r="B240" s="4">
-        <v>10.87</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>45505</v>
+        <v>45540</v>
       </c>
       <c r="B241" s="4">
-        <v>10.97</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>45512</v>
+        <v>45547</v>
       </c>
       <c r="B242" s="4">
-        <v>10.86</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>45519</v>
+        <v>45554</v>
       </c>
       <c r="B243" s="4">
-        <v>10.65</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>45526</v>
+        <v>45561</v>
       </c>
       <c r="B244" s="4">
-        <v>10.65</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>45533</v>
+        <v>45568</v>
       </c>
       <c r="B245" s="4">
-        <v>10.65</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="B246" s="4">
-        <v>10.51</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>45547</v>
+        <v>45582</v>
       </c>
       <c r="B247" s="4">
-        <v>10.49</v>
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>45554</v>
+        <v>45589</v>
       </c>
       <c r="B248" s="4">
-        <v>10.4</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>45561</v>
+        <v>45596</v>
       </c>
       <c r="B249" s="4">
-        <v>10.35</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>45568</v>
+        <v>45603</v>
       </c>
       <c r="B250" s="4">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>45575</v>
+        <v>45610</v>
       </c>
       <c r="B251" s="4">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>45582</v>
+        <v>45617</v>
       </c>
       <c r="B252" s="4">
-        <v>10.210000000000001</v>
+        <v>10.050000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>45589</v>
+        <v>45624</v>
       </c>
       <c r="B253" s="4">
-        <v>10.199999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>45596</v>
+        <v>45631</v>
       </c>
       <c r="B254" s="4">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>45603</v>
+        <v>45637</v>
       </c>
       <c r="B255" s="4">
-        <v>10.1</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>45610</v>
+        <v>45645</v>
       </c>
       <c r="B256" s="4">
-        <v>10.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>45617</v>
+        <v>45652</v>
       </c>
       <c r="B257" s="4">
-        <v>10.050000000000001</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>45624</v>
+        <v>45659</v>
       </c>
       <c r="B258" s="4">
-        <v>9.9499999999999993</v>
+        <v>10.039999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>45631</v>
+        <v>45666</v>
       </c>
       <c r="B259" s="4">
-        <v>9.9</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>45637</v>
+        <v>45673</v>
       </c>
       <c r="B260" s="4">
-        <v>9.9499999999999993</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>45645</v>
+        <v>45680</v>
       </c>
       <c r="B261" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>45652</v>
+        <v>45687</v>
       </c>
       <c r="B262" s="4">
-        <v>9.74</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="3">
-        <v>45659</v>
-      </c>
-      <c r="B263" s="4">
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="3">
-        <v>45666</v>
-      </c>
-      <c r="B264" s="4">
-        <v>9.8800000000000008</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="3">
-        <v>45673</v>
-      </c>
-      <c r="B265" s="4">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="3">
-        <v>45680</v>
-      </c>
-      <c r="B266" s="4">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="3">
-        <v>45687</v>
-      </c>
-      <c r="B267" s="4">
         <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="3">
-        <v>45694</v>
-      </c>
-      <c r="B268" s="4">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="3">
-        <v>45701</v>
-      </c>
-      <c r="B269" s="4">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="3">
-        <v>45708</v>
-      </c>
-      <c r="B270" s="4">
-        <v>9.3699999999999992</v>
       </c>
     </row>
   </sheetData>
